--- a/state_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
+++ b/state_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U233"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,27 +567,27 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.16452</v>
+        <v>3.18141</v>
       </c>
       <c r="G2" t="n">
-        <v>4.23802779282779</v>
+        <v>4.21434822839532</v>
       </c>
       <c r="H2" t="n">
-        <v>10.1050241650216</v>
+        <v>10.3266164576416</v>
       </c>
       <c r="I2" t="n">
-        <v>9.849170000000001</v>
+        <v>9.263019999999999</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.27252</v>
+        <v>4.09071</v>
       </c>
       <c r="M2" t="n">
-        <v>7.14215</v>
+        <v>6.9434</v>
       </c>
       <c r="N2" t="n">
-        <v>8.76605</v>
+        <v>9.176170000000001</v>
       </c>
       <c r="O2" t="n">
         <v>1815287</v>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.00221</v>
+        <v>0.00231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0035530283624054</v>
+        <v>0.0036085909722817</v>
       </c>
       <c r="H3" t="n">
         <v>0.008</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.00221</v>
+        <v>0.00231</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035530283624054</v>
+        <v>0.0036085909722817</v>
       </c>
       <c r="H4" t="n">
         <v>0.008</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>61.1689304579548</v>
+        <v>61.1690613985704</v>
       </c>
       <c r="H5" t="n">
         <v>1733</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>61.1689304579548</v>
+        <v>61.1690613985704</v>
       </c>
       <c r="H6" t="n">
         <v>1733</v>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>61.1689304579548</v>
+        <v>61.1690613985704</v>
       </c>
       <c r="H7" t="n">
         <v>1733</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>61.1689304579548</v>
+        <v>61.1690613985704</v>
       </c>
       <c r="H8" t="n">
         <v>1733</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00085</v>
+        <v>0.00088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0030406279014999</v>
+        <v>0.0030880860527969</v>
       </c>
       <c r="H9" t="n">
         <v>0.025</v>
@@ -1164,13 +1164,13 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00125</v>
+        <v>0.00131</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00444</v>
+        <v>0.00457</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01339</v>
+        <v>0.01359</v>
       </c>
       <c r="O9" t="n">
         <v>1815287</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00085</v>
+        <v>0.00088</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0030406279014999</v>
+        <v>0.0030880860527969</v>
       </c>
       <c r="H10" t="n">
         <v>0.025</v>
@@ -1245,13 +1245,13 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00125</v>
+        <v>0.00131</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00444</v>
+        <v>0.00457</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01339</v>
+        <v>0.01359</v>
       </c>
       <c r="O10" t="n">
         <v>1815287</v>
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0135</v>
+        <v>0.01325</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0172566529351767</v>
+        <v>0.0172475475892535</v>
       </c>
       <c r="H11" t="n">
-        <v>0.058</v>
+        <v>0.0575</v>
       </c>
       <c r="I11" t="n">
         <v>0.0318</v>
@@ -1322,10 +1322,10 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.01191</v>
+        <v>0.01154</v>
       </c>
       <c r="M11" t="n">
-        <v>0.025</v>
+        <v>0.02519</v>
       </c>
       <c r="N11" t="n">
         <v>0.029</v>
@@ -1385,13 +1385,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0135</v>
+        <v>0.01325</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0172566529351767</v>
+        <v>0.0172475475892535</v>
       </c>
       <c r="H12" t="n">
-        <v>0.058</v>
+        <v>0.0575</v>
       </c>
       <c r="I12" t="n">
         <v>0.0318</v>
@@ -1399,10 +1399,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.01191</v>
+        <v>0.01154</v>
       </c>
       <c r="M12" t="n">
-        <v>0.025</v>
+        <v>0.02519</v>
       </c>
       <c r="N12" t="n">
         <v>0.029</v>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.16452</v>
+        <v>3.18141</v>
       </c>
       <c r="G13" t="n">
-        <v>4.16310613252756</v>
+        <v>4.03881094602802</v>
       </c>
       <c r="H13" t="n">
-        <v>10.1050241650216</v>
+        <v>10.3266164576416</v>
       </c>
       <c r="I13" t="n">
-        <v>9.18088</v>
+        <v>9.20842</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1483,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>7.02581</v>
+        <v>6.085</v>
       </c>
       <c r="N13" t="n">
-        <v>8.79984</v>
+        <v>9.033390000000001</v>
       </c>
       <c r="O13" t="n">
         <v>1815287</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0025</v>
+        <v>0.00259</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0034218189802464</v>
+        <v>0.00348436429186</v>
       </c>
       <c r="H14" t="n">
         <v>0.008</v>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0025</v>
+        <v>0.00259</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0034218189802464</v>
+        <v>0.00348436429186</v>
       </c>
       <c r="H15" t="n">
         <v>0.008</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>48.7769982086769</v>
+        <v>48.7769257469676</v>
       </c>
       <c r="H16" t="n">
         <v>1733</v>
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>48.7769982086769</v>
+        <v>48.7769257469676</v>
       </c>
       <c r="H17" t="n">
         <v>1733</v>
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>48.7769982086769</v>
+        <v>48.7769257469676</v>
       </c>
       <c r="H18" t="n">
         <v>1733</v>
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>48.7769982086769</v>
+        <v>48.7769257469676</v>
       </c>
       <c r="H19" t="n">
         <v>1733</v>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.00108</v>
+        <v>0.00113</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0036320097166897</v>
+        <v>0.0036693477252804</v>
       </c>
       <c r="H20" t="n">
         <v>0.025</v>
@@ -2063,13 +2063,13 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00138</v>
+        <v>0.00145</v>
       </c>
       <c r="M20" t="n">
         <v>0.00632</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01346</v>
+        <v>0.01363</v>
       </c>
       <c r="O20" t="n">
         <v>1815287</v>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.00108</v>
+        <v>0.00113</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0036320097166897</v>
+        <v>0.0036693477252804</v>
       </c>
       <c r="H21" t="n">
         <v>0.025</v>
@@ -2144,13 +2144,13 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.00138</v>
+        <v>0.00145</v>
       </c>
       <c r="M21" t="n">
         <v>0.00632</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01346</v>
+        <v>0.01363</v>
       </c>
       <c r="O21" t="n">
         <v>1815287</v>
@@ -2214,7 +2214,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0096433309579518</v>
+        <v>0.0096439105332783</v>
       </c>
       <c r="H22" t="n">
         <v>0.028</v>
@@ -2295,7 +2295,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0096433309579518</v>
+        <v>0.0096439105332783</v>
       </c>
       <c r="H23" t="n">
         <v>0.028</v>
@@ -2369,13 +2369,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0155</v>
+        <v>0.01575</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0186924897013825</v>
+        <v>0.0186773273586068</v>
       </c>
       <c r="H24" t="n">
-        <v>0.058</v>
+        <v>0.0575</v>
       </c>
       <c r="I24" t="n">
         <v>0.0358</v>
@@ -2383,7 +2383,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.0125</v>
+        <v>0.01204</v>
       </c>
       <c r="M24" t="n">
         <v>0.02834</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0155</v>
+        <v>0.01575</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0186924897013825</v>
+        <v>0.0186773273586068</v>
       </c>
       <c r="H25" t="n">
-        <v>0.058</v>
+        <v>0.0575</v>
       </c>
       <c r="I25" t="n">
         <v>0.0358</v>
@@ -2460,7 +2460,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.0125</v>
+        <v>0.01204</v>
       </c>
       <c r="M25" t="n">
         <v>0.02834</v>
@@ -2608,27 +2608,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>4.35472614210759</v>
+        <v>4.17885174031862</v>
       </c>
       <c r="H27" t="n">
-        <v>10.8645639298408</v>
+        <v>12.3652016585106</v>
       </c>
       <c r="I27" t="n">
-        <v>10.07507</v>
+        <v>9.244820000000001</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>3.27252</v>
+        <v>3.09071</v>
       </c>
       <c r="M27" t="n">
-        <v>7.13477</v>
+        <v>6.081</v>
       </c>
       <c r="N27" t="n">
-        <v>8.90034</v>
+        <v>9.070959999999999</v>
       </c>
       <c r="O27" t="n">
         <v>1815287</v>
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.00273</v>
+        <v>0.00283</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0040511756099076</v>
+        <v>0.0041046165914445</v>
       </c>
       <c r="H28" t="n">
         <v>0.02</v>
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.00273</v>
+        <v>0.00283</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0040511756099076</v>
+        <v>0.0041046165914445</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>40.6715985669416</v>
+        <v>40.6715405975741</v>
       </c>
       <c r="H30" t="n">
         <v>1733</v>
@@ -2939,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>40.6715985669416</v>
+        <v>40.6715405975741</v>
       </c>
       <c r="H31" t="n">
         <v>1733</v>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>40.6715985669416</v>
+        <v>40.6715405975741</v>
       </c>
       <c r="H32" t="n">
         <v>1733</v>
@@ -3109,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>40.6715985669416</v>
+        <v>40.6715405975741</v>
       </c>
       <c r="H33" t="n">
         <v>1733</v>
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.00125</v>
+        <v>0.00131</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0035384819171464</v>
+        <v>0.0035683523240189</v>
       </c>
       <c r="H35" t="n">
         <v>0.025</v>
@@ -3282,13 +3282,13 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.00094</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M35" t="n">
         <v>0.00652</v>
       </c>
       <c r="N35" t="n">
-        <v>0.012</v>
+        <v>0.01236</v>
       </c>
       <c r="O35" t="n">
         <v>1815287</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.00125</v>
+        <v>0.00131</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0035384819171464</v>
+        <v>0.0035683523240189</v>
       </c>
       <c r="H36" t="n">
         <v>0.025</v>
@@ -3363,13 +3363,13 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.00094</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M36" t="n">
         <v>0.00652</v>
       </c>
       <c r="N36" t="n">
-        <v>0.012</v>
+        <v>0.01236</v>
       </c>
       <c r="O36" t="n">
         <v>1815287</v>
@@ -3433,7 +3433,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0095709315280434</v>
+        <v>0.0095713720052915</v>
       </c>
       <c r="H37" t="n">
         <v>0.028</v>
@@ -3514,7 +3514,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0095709315280434</v>
+        <v>0.0095713720052915</v>
       </c>
       <c r="H38" t="n">
         <v>0.028</v>
@@ -3591,10 +3591,10 @@
         <v>0.0175</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0182206584277727</v>
+        <v>0.0181951952202188</v>
       </c>
       <c r="H39" t="n">
-        <v>0.058</v>
+        <v>0.0575</v>
       </c>
       <c r="I39" t="n">
         <v>0.034</v>
@@ -3602,10 +3602,10 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.0125</v>
+        <v>0.01204</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0259</v>
+        <v>0.02625</v>
       </c>
       <c r="N39" t="n">
         <v>0.0327</v>
@@ -3668,10 +3668,10 @@
         <v>0.0175</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0182206584277727</v>
+        <v>0.0181951952202188</v>
       </c>
       <c r="H40" t="n">
-        <v>0.058</v>
+        <v>0.0575</v>
       </c>
       <c r="I40" t="n">
         <v>0.034</v>
@@ -3679,10 +3679,10 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.0125</v>
+        <v>0.01204</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0259</v>
+        <v>0.02625</v>
       </c>
       <c r="N40" t="n">
         <v>0.0327</v>
@@ -3745,7 +3745,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0851996801585298</v>
+        <v>0.0852250816269204</v>
       </c>
       <c r="H41" t="n">
         <v>0.331</v>
@@ -3822,7 +3822,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0851996801585298</v>
+        <v>0.0852250816269204</v>
       </c>
       <c r="H42" t="n">
         <v>0.331</v>
@@ -3899,7 +3899,7 @@
         <v>0.008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009583865698868601</v>
+        <v>0.009582346502575599</v>
       </c>
       <c r="H43" t="n">
         <v>0.07199999999999999</v>
@@ -3976,7 +3976,7 @@
         <v>0.008</v>
       </c>
       <c r="G44" t="n">
-        <v>0.009583865698868601</v>
+        <v>0.009582346502575599</v>
       </c>
       <c r="H44" t="n">
         <v>0.07199999999999999</v>
@@ -4212,16 +4212,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.16452</v>
+        <v>3.1</v>
       </c>
       <c r="G47" t="n">
-        <v>4.12578563826186</v>
+        <v>3.90768367670286</v>
       </c>
       <c r="H47" t="n">
-        <v>10.8645639298408</v>
+        <v>12.3652016585106</v>
       </c>
       <c r="I47" t="n">
-        <v>9.80411</v>
+        <v>9.04163</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4229,10 +4229,10 @@
         <v>3.05</v>
       </c>
       <c r="M47" t="n">
-        <v>6.86628</v>
+        <v>5.51204</v>
       </c>
       <c r="N47" t="n">
-        <v>8.88603</v>
+        <v>8.27966</v>
       </c>
       <c r="O47" t="n">
         <v>1815287</v>
@@ -4296,7 +4296,7 @@
         <v>0.004</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0048326410440723</v>
+        <v>0.0048748754719854</v>
       </c>
       <c r="H48" t="n">
         <v>0.02</v>
@@ -4377,7 +4377,7 @@
         <v>0.004</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0048326410440723</v>
+        <v>0.0048748754719854</v>
       </c>
       <c r="H49" t="n">
         <v>0.02</v>
@@ -4458,7 +4458,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>39.4382652336082</v>
+        <v>39.4382072642408</v>
       </c>
       <c r="H50" t="n">
         <v>1360</v>
@@ -4543,7 +4543,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="n">
-        <v>39.4382652336082</v>
+        <v>39.4382072642408</v>
       </c>
       <c r="H51" t="n">
         <v>1360</v>
@@ -4628,7 +4628,7 @@
         <v>7</v>
       </c>
       <c r="G52" t="n">
-        <v>39.4382652336082</v>
+        <v>39.4382072642408</v>
       </c>
       <c r="H52" t="n">
         <v>1360</v>
@@ -4713,7 +4713,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>39.4382652336082</v>
+        <v>39.4382072642408</v>
       </c>
       <c r="H53" t="n">
         <v>1360</v>
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.00171</v>
+        <v>0.00175</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0046855357247204</v>
+        <v>0.0047113496414792</v>
       </c>
       <c r="H55" t="n">
         <v>0.0387836886550351</v>
@@ -4886,13 +4886,13 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.00154</v>
+        <v>0.00161</v>
       </c>
       <c r="M55" t="n">
         <v>0.00919</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01352</v>
+        <v>0.01368</v>
       </c>
       <c r="O55" t="n">
         <v>1815287</v>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.00171</v>
+        <v>0.00175</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0046855357247204</v>
+        <v>0.0047113496414792</v>
       </c>
       <c r="H56" t="n">
         <v>0.0387836886550351</v>
@@ -4967,13 +4967,13 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.00154</v>
+        <v>0.00161</v>
       </c>
       <c r="M56" t="n">
         <v>0.00919</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01352</v>
+        <v>0.01368</v>
       </c>
       <c r="O56" t="n">
         <v>1815287</v>
@@ -5037,7 +5037,7 @@
         <v>0.008149999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0088407762733695</v>
+        <v>0.008841143337742901</v>
       </c>
       <c r="H57" t="n">
         <v>0.028</v>
@@ -5048,7 +5048,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.00366</v>
+        <v>0.00367</v>
       </c>
       <c r="M57" t="n">
         <v>0.01565</v>
@@ -5118,7 +5118,7 @@
         <v>0.008149999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0088407762733695</v>
+        <v>0.008841143337742901</v>
       </c>
       <c r="H58" t="n">
         <v>0.028</v>
@@ -5129,7 +5129,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.00366</v>
+        <v>0.00367</v>
       </c>
       <c r="M58" t="n">
         <v>0.01565</v>
@@ -5272,10 +5272,10 @@
         <v>0.018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01845</v>
+        <v>0.0184966666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I60" t="n">
         <v>0.034</v>
@@ -5286,7 +5286,7 @@
         <v>0.0155</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0259</v>
+        <v>0.02625</v>
       </c>
       <c r="N60" t="n">
         <v>0.0327</v>
@@ -5349,10 +5349,10 @@
         <v>0.018</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01845</v>
+        <v>0.0184966666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I61" t="n">
         <v>0.034</v>
@@ -5363,7 +5363,7 @@
         <v>0.0155</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0259</v>
+        <v>0.02625</v>
       </c>
       <c r="N61" t="n">
         <v>0.0327</v>
@@ -5426,7 +5426,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0850743435726503</v>
+        <v>0.0850795139713495</v>
       </c>
       <c r="H62" t="n">
         <v>0.331</v>
@@ -5503,7 +5503,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0850743435726503</v>
+        <v>0.0850795139713495</v>
       </c>
       <c r="H63" t="n">
         <v>0.331</v>
@@ -5580,7 +5580,7 @@
         <v>0.008</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0084974020927593</v>
+        <v>0.008496492921544601</v>
       </c>
       <c r="H64" t="n">
         <v>0.02</v>
@@ -5657,7 +5657,7 @@
         <v>0.008</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0084974020927593</v>
+        <v>0.008496492921544601</v>
       </c>
       <c r="H65" t="n">
         <v>0.02</v>
@@ -5896,13 +5896,13 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>3.5358774995593</v>
+        <v>3.43459580709034</v>
       </c>
       <c r="H68" t="n">
-        <v>10.8645639298408</v>
+        <v>12.3652016585106</v>
       </c>
       <c r="I68" t="n">
-        <v>8.899660000000001</v>
+        <v>8.33019</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -5910,10 +5910,10 @@
         <v>2.85</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>4.96642</v>
       </c>
       <c r="N68" t="n">
-        <v>8.168290000000001</v>
+        <v>7.64027</v>
       </c>
       <c r="O68" t="n">
         <v>1815287</v>
@@ -5977,7 +5977,7 @@
         <v>0.004</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0050988395688174</v>
+        <v>0.0051369727890156</v>
       </c>
       <c r="H69" t="n">
         <v>0.02</v>
@@ -6058,7 +6058,7 @@
         <v>0.004</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0050988395688174</v>
+        <v>0.0051369727890156</v>
       </c>
       <c r="H70" t="n">
         <v>0.02</v>
@@ -6139,7 +6139,7 @@
         <v>8</v>
       </c>
       <c r="G71" t="n">
-        <v>43.1273767245651</v>
+        <v>43.1269565627387</v>
       </c>
       <c r="H71" t="n">
         <v>1360</v>
@@ -6224,7 +6224,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="n">
-        <v>43.1273767245651</v>
+        <v>43.1269565627387</v>
       </c>
       <c r="H72" t="n">
         <v>1360</v>
@@ -6309,7 +6309,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>43.1273767245651</v>
+        <v>43.1269565627387</v>
       </c>
       <c r="H73" t="n">
         <v>1360</v>
@@ -6394,7 +6394,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="n">
-        <v>43.1273767245651</v>
+        <v>43.1269565627387</v>
       </c>
       <c r="H74" t="n">
         <v>1360</v>
@@ -6556,7 +6556,7 @@
         <v>0.00174</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0046071147873766</v>
+        <v>0.0046177192835727</v>
       </c>
       <c r="H76" t="n">
         <v>0.0387836886550351</v>
@@ -6567,7 +6567,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00095</v>
+        <v>0.00096</v>
       </c>
       <c r="M76" t="n">
         <v>0.00928</v>
@@ -6637,7 +6637,7 @@
         <v>0.00174</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0046071147873766</v>
+        <v>0.0046177192835727</v>
       </c>
       <c r="H77" t="n">
         <v>0.0387836886550351</v>
@@ -6648,7 +6648,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00095</v>
+        <v>0.00096</v>
       </c>
       <c r="M77" t="n">
         <v>0.00928</v>
@@ -6718,7 +6718,7 @@
         <v>0.0086</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0088199535277389</v>
+        <v>0.0088152366516972</v>
       </c>
       <c r="H78" t="n">
         <v>0.028</v>
@@ -6799,7 +6799,7 @@
         <v>0.0086</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0088199535277389</v>
+        <v>0.0088152366516972</v>
       </c>
       <c r="H79" t="n">
         <v>0.028</v>
@@ -6953,13 +6953,13 @@
         <v>0.018</v>
       </c>
       <c r="G81" t="n">
-        <v>0.018821723476102</v>
+        <v>0.0188099487480457</v>
       </c>
       <c r="H81" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>0.042</v>
+        <v>0.0418</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -7030,13 +7030,13 @@
         <v>0.018</v>
       </c>
       <c r="G82" t="n">
-        <v>0.018821723476102</v>
+        <v>0.0188099487480457</v>
       </c>
       <c r="H82" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>0.042</v>
+        <v>0.0418</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7107,7 +7107,7 @@
         <v>0.068</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07697076461842881</v>
+        <v>0.0769814015967734</v>
       </c>
       <c r="H83" t="n">
         <v>0.324</v>
@@ -7184,7 +7184,7 @@
         <v>0.068</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07697076461842881</v>
+        <v>0.0769814015967734</v>
       </c>
       <c r="H84" t="n">
         <v>0.324</v>
@@ -7261,7 +7261,7 @@
         <v>0.007</v>
       </c>
       <c r="G85" t="n">
-        <v>0.008639068759425999</v>
+        <v>0.0086381595882113</v>
       </c>
       <c r="H85" t="n">
         <v>0.036</v>
@@ -7338,7 +7338,7 @@
         <v>0.007</v>
       </c>
       <c r="G86" t="n">
-        <v>0.008639068759425999</v>
+        <v>0.0086381595882113</v>
       </c>
       <c r="H86" t="n">
         <v>0.036</v>
@@ -7577,13 +7577,13 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>3.5359462326982</v>
+        <v>3.33927782257693</v>
       </c>
       <c r="H89" t="n">
-        <v>10.8645639298408</v>
+        <v>12.3652016585106</v>
       </c>
       <c r="I89" t="n">
-        <v>9.185779999999999</v>
+        <v>7.4675</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7591,10 +7591,10 @@
         <v>2.85</v>
       </c>
       <c r="M89" t="n">
-        <v>5.051</v>
+        <v>4.70708</v>
       </c>
       <c r="N89" t="n">
-        <v>7.44428</v>
+        <v>5.97</v>
       </c>
       <c r="O89" t="n">
         <v>1815287</v>
@@ -7658,7 +7658,7 @@
         <v>0.0045</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0054353707433361</v>
+        <v>0.0054728178958535</v>
       </c>
       <c r="H90" t="n">
         <v>0.02</v>
@@ -7739,7 +7739,7 @@
         <v>0.0045</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0054353707433361</v>
+        <v>0.0054728178958535</v>
       </c>
       <c r="H91" t="n">
         <v>0.02</v>
@@ -7820,7 +7820,7 @@
         <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>47.5115980491911</v>
+        <v>47.509325458665</v>
       </c>
       <c r="H92" t="n">
         <v>1360</v>
@@ -7905,7 +7905,7 @@
         <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>47.5115980491911</v>
+        <v>47.509325458665</v>
       </c>
       <c r="H93" t="n">
         <v>1360</v>
@@ -7990,7 +7990,7 @@
         <v>8</v>
       </c>
       <c r="G94" t="n">
-        <v>47.5115980491911</v>
+        <v>47.509325458665</v>
       </c>
       <c r="H94" t="n">
         <v>1360</v>
@@ -8075,7 +8075,7 @@
         <v>8</v>
       </c>
       <c r="G95" t="n">
-        <v>47.5115980491911</v>
+        <v>47.509325458665</v>
       </c>
       <c r="H95" t="n">
         <v>1360</v>
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00145</v>
+        <v>0.00149</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0041777664164182</v>
+        <v>0.0041859772461225</v>
       </c>
       <c r="H97" t="n">
         <v>0.0387836886550351</v>
@@ -8251,7 +8251,7 @@
         <v>0.00106</v>
       </c>
       <c r="M97" t="n">
-        <v>0.00825</v>
+        <v>0.0083</v>
       </c>
       <c r="N97" t="n">
         <v>0.01117</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.00145</v>
+        <v>0.00149</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0041777664164182</v>
+        <v>0.0041859772461225</v>
       </c>
       <c r="H98" t="n">
         <v>0.0387836886550351</v>
@@ -8332,7 +8332,7 @@
         <v>0.00106</v>
       </c>
       <c r="M98" t="n">
-        <v>0.00825</v>
+        <v>0.0083</v>
       </c>
       <c r="N98" t="n">
         <v>0.01117</v>
@@ -8399,7 +8399,7 @@
         <v>0.0064</v>
       </c>
       <c r="G99" t="n">
-        <v>0.008116823832922501</v>
+        <v>0.008101255328842301</v>
       </c>
       <c r="H99" t="n">
         <v>0.028</v>
@@ -8480,7 +8480,7 @@
         <v>0.0064</v>
       </c>
       <c r="G100" t="n">
-        <v>0.008116823832922501</v>
+        <v>0.008101255328842301</v>
       </c>
       <c r="H100" t="n">
         <v>0.028</v>
@@ -8634,18 +8634,18 @@
         <v>0.016</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0172756440276847</v>
+        <v>0.0172505432617179</v>
       </c>
       <c r="H102" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>0.042</v>
+        <v>0.0418</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00996</v>
+        <v>0.009990000000000001</v>
       </c>
       <c r="M102" t="n">
         <v>0.025</v>
@@ -8711,18 +8711,18 @@
         <v>0.016</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0172756440276847</v>
+        <v>0.0172505432617179</v>
       </c>
       <c r="H103" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>0.042</v>
+        <v>0.0418</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.00996</v>
+        <v>0.009990000000000001</v>
       </c>
       <c r="M103" t="n">
         <v>0.025</v>
@@ -8788,7 +8788,7 @@
         <v>0.0665</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0748383938123076</v>
+        <v>0.074861912633814</v>
       </c>
       <c r="H104" t="n">
         <v>0.324</v>
@@ -8865,7 +8865,7 @@
         <v>0.0665</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0748383938123076</v>
+        <v>0.074861912633814</v>
       </c>
       <c r="H105" t="n">
         <v>0.324</v>
@@ -8942,7 +8942,7 @@
         <v>0.007</v>
       </c>
       <c r="G106" t="n">
-        <v>0.008731647657422899</v>
+        <v>0.008731423965427001</v>
       </c>
       <c r="H106" t="n">
         <v>0.036</v>
@@ -8956,7 +8956,7 @@
         <v>0.007</v>
       </c>
       <c r="M106" t="n">
-        <v>0.01083</v>
+        <v>0.01087</v>
       </c>
       <c r="N106" t="n">
         <v>0.0168</v>
@@ -9019,7 +9019,7 @@
         <v>0.007</v>
       </c>
       <c r="G107" t="n">
-        <v>0.008731647657422899</v>
+        <v>0.008731423965427001</v>
       </c>
       <c r="H107" t="n">
         <v>0.036</v>
@@ -9033,7 +9033,7 @@
         <v>0.007</v>
       </c>
       <c r="M107" t="n">
-        <v>0.01083</v>
+        <v>0.01087</v>
       </c>
       <c r="N107" t="n">
         <v>0.0168</v>
@@ -9258,13 +9258,13 @@
         <v>2.6</v>
       </c>
       <c r="G110" t="n">
-        <v>3.14276920303094</v>
+        <v>3.04429014726445</v>
       </c>
       <c r="H110" t="n">
-        <v>10.8645639298408</v>
+        <v>12.3652016585106</v>
       </c>
       <c r="I110" t="n">
-        <v>8.54894</v>
+        <v>7.03413</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9272,10 +9272,10 @@
         <v>2.6</v>
       </c>
       <c r="M110" t="n">
-        <v>4.88325</v>
+        <v>4.8418</v>
       </c>
       <c r="N110" t="n">
-        <v>6.5</v>
+        <v>5.55</v>
       </c>
       <c r="O110" t="n">
         <v>1815287</v>
@@ -9339,7 +9339,7 @@
         <v>0.005</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0059293835624048</v>
+        <v>0.0059536712210654</v>
       </c>
       <c r="H111" t="n">
         <v>0.02</v>
@@ -9420,7 +9420,7 @@
         <v>0.005</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0059293835624048</v>
+        <v>0.0059536712210654</v>
       </c>
       <c r="H112" t="n">
         <v>0.02</v>
@@ -9501,7 +9501,7 @@
         <v>8</v>
       </c>
       <c r="G113" t="n">
-        <v>73.25699886952989</v>
+        <v>73.2506131539876</v>
       </c>
       <c r="H113" t="n">
         <v>1360</v>
@@ -9586,7 +9586,7 @@
         <v>8</v>
       </c>
       <c r="G114" t="n">
-        <v>73.25699886952989</v>
+        <v>73.2506131539876</v>
       </c>
       <c r="H114" t="n">
         <v>1360</v>
@@ -9671,7 +9671,7 @@
         <v>8</v>
       </c>
       <c r="G115" t="n">
-        <v>73.25699886952989</v>
+        <v>73.2506131539876</v>
       </c>
       <c r="H115" t="n">
         <v>1360</v>
@@ -9756,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="G116" t="n">
-        <v>73.25699886952989</v>
+        <v>73.2506131539876</v>
       </c>
       <c r="H116" t="n">
         <v>1360</v>
@@ -9918,7 +9918,7 @@
         <v>0.00174</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0037716510813831</v>
+        <v>0.0037840402587526</v>
       </c>
       <c r="H118" t="n">
         <v>0.0387836886550351</v>
@@ -9929,10 +9929,10 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.00109</v>
+        <v>0.0011</v>
       </c>
       <c r="M118" t="n">
-        <v>0.00644</v>
+        <v>0.00647</v>
       </c>
       <c r="N118" t="n">
         <v>0.009429999999999999</v>
@@ -9999,7 +9999,7 @@
         <v>0.00174</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0037716510813831</v>
+        <v>0.0037840402587526</v>
       </c>
       <c r="H119" t="n">
         <v>0.0387836886550351</v>
@@ -10010,10 +10010,10 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>0.00109</v>
+        <v>0.0011</v>
       </c>
       <c r="M119" t="n">
-        <v>0.00644</v>
+        <v>0.00647</v>
       </c>
       <c r="N119" t="n">
         <v>0.009429999999999999</v>
@@ -10080,7 +10080,7 @@
         <v>0.0064</v>
       </c>
       <c r="G120" t="n">
-        <v>0.008510469935697901</v>
+        <v>0.0084921284941027</v>
       </c>
       <c r="H120" t="n">
         <v>0.048</v>
@@ -10161,7 +10161,7 @@
         <v>0.0064</v>
       </c>
       <c r="G121" t="n">
-        <v>0.008510469935697901</v>
+        <v>0.0084921284941027</v>
       </c>
       <c r="H121" t="n">
         <v>0.048</v>
@@ -10315,24 +10315,24 @@
         <v>0.0145</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0167028680648296</v>
+        <v>0.0166881064716473</v>
       </c>
       <c r="H123" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.008959999999999999</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="M123" t="n">
         <v>0.025</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0285</v>
+        <v>0.02843</v>
       </c>
       <c r="O123" t="n">
         <v>1815287</v>
@@ -10392,24 +10392,24 @@
         <v>0.0145</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0167028680648296</v>
+        <v>0.0166881064716473</v>
       </c>
       <c r="H124" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.008959999999999999</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="M124" t="n">
         <v>0.025</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0285</v>
+        <v>0.02843</v>
       </c>
       <c r="O124" t="n">
         <v>1815287</v>
@@ -10469,7 +10469,7 @@
         <v>0.068</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0764034999113677</v>
+        <v>0.07646221357550401</v>
       </c>
       <c r="H125" t="n">
         <v>0.324</v>
@@ -10546,7 +10546,7 @@
         <v>0.068</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0764034999113677</v>
+        <v>0.07646221357550401</v>
       </c>
       <c r="H126" t="n">
         <v>0.324</v>
@@ -10623,7 +10623,7 @@
         <v>0.007</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0099051206100892</v>
+        <v>0.0099040085194745</v>
       </c>
       <c r="H127" t="n">
         <v>0.046</v>
@@ -10700,7 +10700,7 @@
         <v>0.007</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0099051206100892</v>
+        <v>0.0099040085194745</v>
       </c>
       <c r="H128" t="n">
         <v>0.046</v>
@@ -11020,7 +11020,7 @@
         <v>0.005</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0055352858315293</v>
+        <v>0.0055669622321515</v>
       </c>
       <c r="H132" t="n">
         <v>0.019</v>
@@ -11101,7 +11101,7 @@
         <v>0.005</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0055352858315293</v>
+        <v>0.0055669622321515</v>
       </c>
       <c r="H133" t="n">
         <v>0.019</v>
@@ -11182,7 +11182,7 @@
         <v>16</v>
       </c>
       <c r="G134" t="n">
-        <v>93.55275084245589</v>
+        <v>93.5430389641097</v>
       </c>
       <c r="H134" t="n">
         <v>1360</v>
@@ -11267,7 +11267,7 @@
         <v>16</v>
       </c>
       <c r="G135" t="n">
-        <v>93.55275084245589</v>
+        <v>93.5430389641097</v>
       </c>
       <c r="H135" t="n">
         <v>1360</v>
@@ -11352,7 +11352,7 @@
         <v>16</v>
       </c>
       <c r="G136" t="n">
-        <v>93.55275084245589</v>
+        <v>93.5430389641097</v>
       </c>
       <c r="H136" t="n">
         <v>1360</v>
@@ -11437,7 +11437,7 @@
         <v>16</v>
       </c>
       <c r="G137" t="n">
-        <v>93.55275084245589</v>
+        <v>93.5430389641097</v>
       </c>
       <c r="H137" t="n">
         <v>1360</v>
@@ -11596,10 +11596,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00206</v>
+        <v>0.00208</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0042622429473225</v>
+        <v>0.0042795274114427</v>
       </c>
       <c r="H139" t="n">
         <v>0.0387836886550351</v>
@@ -11610,10 +11610,10 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00241</v>
+        <v>0.00242</v>
       </c>
       <c r="M139" t="n">
-        <v>0.006</v>
+        <v>0.00603</v>
       </c>
       <c r="N139" t="n">
         <v>0.01092</v>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00206</v>
+        <v>0.00208</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0042622429473225</v>
+        <v>0.0042795274114427</v>
       </c>
       <c r="H140" t="n">
         <v>0.0387836886550351</v>
@@ -11691,10 +11691,10 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00241</v>
+        <v>0.00242</v>
       </c>
       <c r="M140" t="n">
-        <v>0.006</v>
+        <v>0.00603</v>
       </c>
       <c r="N140" t="n">
         <v>0.01092</v>
@@ -11761,7 +11761,7 @@
         <v>0.00855</v>
       </c>
       <c r="G141" t="n">
-        <v>0.009462636303100401</v>
+        <v>0.009441321626383699</v>
       </c>
       <c r="H141" t="n">
         <v>0.048</v>
@@ -11842,7 +11842,7 @@
         <v>0.00855</v>
       </c>
       <c r="G142" t="n">
-        <v>0.009462636303100401</v>
+        <v>0.009441321626383699</v>
       </c>
       <c r="H142" t="n">
         <v>0.048</v>
@@ -11996,18 +11996,18 @@
         <v>0.015</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0175083875582293</v>
+        <v>0.017512052082326</v>
       </c>
       <c r="H144" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.01025</v>
       </c>
       <c r="M144" t="n">
         <v>0.025</v>
@@ -12073,18 +12073,18 @@
         <v>0.015</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0175083875582293</v>
+        <v>0.017512052082326</v>
       </c>
       <c r="H145" t="n">
-        <v>0.068</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.01025</v>
       </c>
       <c r="M145" t="n">
         <v>0.025</v>
@@ -12150,7 +12150,7 @@
         <v>0.06</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0718444371496352</v>
+        <v>0.0719189429632318</v>
       </c>
       <c r="H146" t="n">
         <v>0.19</v>
@@ -12227,7 +12227,7 @@
         <v>0.06</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0718444371496352</v>
+        <v>0.0719189429632318</v>
       </c>
       <c r="H147" t="n">
         <v>0.19</v>
@@ -12304,7 +12304,7 @@
         <v>0.008</v>
       </c>
       <c r="G148" t="n">
-        <v>0.010684061975213</v>
+        <v>0.0106833675702499</v>
       </c>
       <c r="H148" t="n">
         <v>0.046</v>
@@ -12381,7 +12381,7 @@
         <v>0.008</v>
       </c>
       <c r="G149" t="n">
-        <v>0.010684061975213</v>
+        <v>0.0106833675702499</v>
       </c>
       <c r="H149" t="n">
         <v>0.046</v>
@@ -12701,7 +12701,7 @@
         <v>0.005</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0052370485014454</v>
+        <v>0.0052767634367291</v>
       </c>
       <c r="H153" t="n">
         <v>0.019</v>
@@ -12782,7 +12782,7 @@
         <v>0.005</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0052370485014454</v>
+        <v>0.0052767634367291</v>
       </c>
       <c r="H154" t="n">
         <v>0.019</v>
@@ -12863,7 +12863,7 @@
         <v>16</v>
       </c>
       <c r="G155" t="n">
-        <v>78.6355989817468</v>
+        <v>78.62130769104721</v>
       </c>
       <c r="H155" t="n">
         <v>1000</v>
@@ -12948,7 +12948,7 @@
         <v>16</v>
       </c>
       <c r="G156" t="n">
-        <v>78.6355989817468</v>
+        <v>78.62130769104721</v>
       </c>
       <c r="H156" t="n">
         <v>1000</v>
@@ -13033,7 +13033,7 @@
         <v>16</v>
       </c>
       <c r="G157" t="n">
-        <v>78.6355989817468</v>
+        <v>78.62130769104721</v>
       </c>
       <c r="H157" t="n">
         <v>1000</v>
@@ -13118,7 +13118,7 @@
         <v>16</v>
       </c>
       <c r="G158" t="n">
-        <v>78.6355989817468</v>
+        <v>78.62130769104721</v>
       </c>
       <c r="H158" t="n">
         <v>1000</v>
@@ -13277,27 +13277,27 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.00294</v>
+        <v>0.00296</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0041929067786749</v>
+        <v>0.0042187690441373</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I160" t="n">
-        <v>0.01144</v>
+        <v>0.01151</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00291</v>
+        <v>0.00293</v>
       </c>
       <c r="M160" t="n">
-        <v>0.00648</v>
+        <v>0.00654</v>
       </c>
       <c r="N160" t="n">
-        <v>0.01005</v>
+        <v>0.01014</v>
       </c>
       <c r="O160" t="n">
         <v>1815287</v>
@@ -13358,27 +13358,27 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.00294</v>
+        <v>0.00296</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0041929067786749</v>
+        <v>0.0042187690441373</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01144</v>
+        <v>0.01151</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00291</v>
+        <v>0.00293</v>
       </c>
       <c r="M161" t="n">
-        <v>0.00648</v>
+        <v>0.00654</v>
       </c>
       <c r="N161" t="n">
-        <v>0.01005</v>
+        <v>0.01014</v>
       </c>
       <c r="O161" t="n">
         <v>1815287</v>
@@ -13442,7 +13442,7 @@
         <v>0.0109</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0108620030201022</v>
+        <v>0.0108403270776784</v>
       </c>
       <c r="H162" t="n">
         <v>0.048</v>
@@ -13523,7 +13523,7 @@
         <v>0.0109</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0108620030201022</v>
+        <v>0.0108403270776784</v>
       </c>
       <c r="H163" t="n">
         <v>0.048</v>
@@ -13677,13 +13677,13 @@
         <v>0.015</v>
       </c>
       <c r="G165" t="n">
-        <v>0.017635648364301</v>
+        <v>0.0176309004227044</v>
       </c>
       <c r="H165" t="n">
         <v>0.055</v>
       </c>
       <c r="I165" t="n">
-        <v>0.0338</v>
+        <v>0.03358</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -13754,13 +13754,13 @@
         <v>0.015</v>
       </c>
       <c r="G166" t="n">
-        <v>0.017635648364301</v>
+        <v>0.0176309004227044</v>
       </c>
       <c r="H166" t="n">
         <v>0.055</v>
       </c>
       <c r="I166" t="n">
-        <v>0.0338</v>
+        <v>0.03358</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -13831,7 +13831,7 @@
         <v>0.06</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0699254981811019</v>
+        <v>0.0700272065682493</v>
       </c>
       <c r="H167" t="n">
         <v>0.19</v>
@@ -13908,7 +13908,7 @@
         <v>0.06</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0699254981811019</v>
+        <v>0.0700272065682493</v>
       </c>
       <c r="H168" t="n">
         <v>0.19</v>
@@ -13985,7 +13985,7 @@
         <v>0.008</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0105261647205556</v>
+        <v>0.0105254585460168</v>
       </c>
       <c r="H169" t="n">
         <v>0.046</v>
@@ -14062,7 +14062,7 @@
         <v>0.008</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0105261647205556</v>
+        <v>0.0105254585460168</v>
       </c>
       <c r="H170" t="n">
         <v>0.046</v>
@@ -14379,10 +14379,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.00403</v>
+        <v>0.00413</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0048258620670775</v>
+        <v>0.0048609383190228</v>
       </c>
       <c r="H174" t="n">
         <v>0.019</v>
@@ -14460,10 +14460,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.00403</v>
+        <v>0.00413</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0048258620670775</v>
+        <v>0.0048609383190228</v>
       </c>
       <c r="H175" t="n">
         <v>0.019</v>
@@ -14544,7 +14544,7 @@
         <v>16</v>
       </c>
       <c r="G176" t="n">
-        <v>80.00317142981351</v>
+        <v>79.98311920845239</v>
       </c>
       <c r="H176" t="n">
         <v>1000</v>
@@ -14629,7 +14629,7 @@
         <v>16</v>
       </c>
       <c r="G177" t="n">
-        <v>80.00317142981351</v>
+        <v>79.98311920845239</v>
       </c>
       <c r="H177" t="n">
         <v>1000</v>
@@ -14714,7 +14714,7 @@
         <v>16</v>
       </c>
       <c r="G178" t="n">
-        <v>80.00317142981351</v>
+        <v>79.98311920845239</v>
       </c>
       <c r="H178" t="n">
         <v>1000</v>
@@ -14799,7 +14799,7 @@
         <v>16</v>
       </c>
       <c r="G179" t="n">
-        <v>80.00317142981351</v>
+        <v>79.98311920845239</v>
       </c>
       <c r="H179" t="n">
         <v>1000</v>
@@ -14958,27 +14958,27 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.00291</v>
+        <v>0.00292</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0039068027929734</v>
+        <v>0.0039328344099301</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I181" t="n">
-        <v>0.009849999999999999</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00291</v>
+        <v>0.00293</v>
       </c>
       <c r="M181" t="n">
-        <v>0.00569</v>
+        <v>0.00573</v>
       </c>
       <c r="N181" t="n">
-        <v>0.00838</v>
+        <v>0.00848</v>
       </c>
       <c r="O181" t="n">
         <v>1815287</v>
@@ -15039,27 +15039,27 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.00291</v>
+        <v>0.00292</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0039068027929734</v>
+        <v>0.0039328344099301</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I182" t="n">
-        <v>0.009849999999999999</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.00291</v>
+        <v>0.00293</v>
       </c>
       <c r="M182" t="n">
-        <v>0.00569</v>
+        <v>0.00573</v>
       </c>
       <c r="N182" t="n">
-        <v>0.00838</v>
+        <v>0.00848</v>
       </c>
       <c r="O182" t="n">
         <v>1815287</v>
@@ -15123,7 +15123,7 @@
         <v>0.012</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0119855339055463</v>
+        <v>0.0119683637669171</v>
       </c>
       <c r="H183" t="n">
         <v>0.048</v>
@@ -15204,7 +15204,7 @@
         <v>0.012</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0119855339055463</v>
+        <v>0.0119683637669171</v>
       </c>
       <c r="H184" t="n">
         <v>0.048</v>
@@ -15358,7 +15358,7 @@
         <v>0.015</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0181068938780627</v>
+        <v>0.0181194172423589</v>
       </c>
       <c r="H186" t="n">
         <v>0.055</v>
@@ -15435,7 +15435,7 @@
         <v>0.015</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0181068938780627</v>
+        <v>0.0181194172423589</v>
       </c>
       <c r="H187" t="n">
         <v>0.055</v>
@@ -15512,7 +15512,7 @@
         <v>0.06</v>
       </c>
       <c r="G188" t="n">
-        <v>0.07580722637824661</v>
+        <v>0.07590503327588401</v>
       </c>
       <c r="H188" t="n">
         <v>0.2</v>
@@ -15589,7 +15589,7 @@
         <v>0.06</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07580722637824661</v>
+        <v>0.07590503327588401</v>
       </c>
       <c r="H189" t="n">
         <v>0.2</v>
@@ -15666,7 +15666,7 @@
         <v>0.007</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0116386848019445</v>
+        <v>0.0116379664519826</v>
       </c>
       <c r="H190" t="n">
         <v>0.08599999999999999</v>
@@ -15743,7 +15743,7 @@
         <v>0.007</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0116386848019445</v>
+        <v>0.0116379664519826</v>
       </c>
       <c r="H191" t="n">
         <v>0.08599999999999999</v>
@@ -16060,10 +16060,10 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.00403</v>
+        <v>0.00413</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0045866402160857</v>
+        <v>0.0046090980948334</v>
       </c>
       <c r="H195" t="n">
         <v>0.011</v>
@@ -16141,10 +16141,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00403</v>
+        <v>0.00413</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0045866402160857</v>
+        <v>0.0046090980948334</v>
       </c>
       <c r="H196" t="n">
         <v>0.011</v>
@@ -16225,7 +16225,7 @@
         <v>16</v>
       </c>
       <c r="G197" t="n">
-        <v>89.9873596319222</v>
+        <v>89.96588288436431</v>
       </c>
       <c r="H197" t="n">
         <v>1000</v>
@@ -16310,7 +16310,7 @@
         <v>16</v>
       </c>
       <c r="G198" t="n">
-        <v>89.9873596319222</v>
+        <v>89.96588288436431</v>
       </c>
       <c r="H198" t="n">
         <v>1000</v>
@@ -16395,7 +16395,7 @@
         <v>16</v>
       </c>
       <c r="G199" t="n">
-        <v>89.9873596319222</v>
+        <v>89.96588288436431</v>
       </c>
       <c r="H199" t="n">
         <v>1000</v>
@@ -16480,7 +16480,7 @@
         <v>16</v>
       </c>
       <c r="G200" t="n">
-        <v>89.9873596319222</v>
+        <v>89.96588288436431</v>
       </c>
       <c r="H200" t="n">
         <v>1000</v>
@@ -16639,16 +16639,16 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.00284</v>
+        <v>0.00285</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0038235769424614</v>
+        <v>0.0038431012110252</v>
       </c>
       <c r="H202" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I202" t="n">
-        <v>0.009849999999999999</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -16656,10 +16656,10 @@
         <v>0.00269</v>
       </c>
       <c r="M202" t="n">
-        <v>0.00546</v>
+        <v>0.00549</v>
       </c>
       <c r="N202" t="n">
-        <v>0.00812</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="O202" t="n">
         <v>1815287</v>
@@ -16720,16 +16720,16 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.00284</v>
+        <v>0.00285</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0038235769424614</v>
+        <v>0.0038431012110252</v>
       </c>
       <c r="H203" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I203" t="n">
-        <v>0.009849999999999999</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -16737,10 +16737,10 @@
         <v>0.00269</v>
       </c>
       <c r="M203" t="n">
-        <v>0.00546</v>
+        <v>0.00549</v>
       </c>
       <c r="N203" t="n">
-        <v>0.00812</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="O203" t="n">
         <v>1815287</v>
@@ -16804,7 +16804,7 @@
         <v>0.013</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0129506060157568</v>
+        <v>0.0129378827184667</v>
       </c>
       <c r="H204" t="n">
         <v>0.048</v>
@@ -16885,7 +16885,7 @@
         <v>0.013</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0129506060157568</v>
+        <v>0.0129378827184667</v>
       </c>
       <c r="H205" t="n">
         <v>0.048</v>
@@ -17039,7 +17039,7 @@
         <v>0.015</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0187580105488393</v>
+        <v>0.0187670780902843</v>
       </c>
       <c r="H207" t="n">
         <v>0.055</v>
@@ -17116,7 +17116,7 @@
         <v>0.015</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0187580105488393</v>
+        <v>0.0187670780902843</v>
       </c>
       <c r="H208" t="n">
         <v>0.055</v>
@@ -17193,7 +17193,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>0.08150518558528549</v>
+        <v>0.08158431774996321</v>
       </c>
       <c r="H209" t="n">
         <v>0.27</v>
@@ -17270,7 +17270,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G210" t="n">
-        <v>0.08150518558528549</v>
+        <v>0.08158431774996321</v>
       </c>
       <c r="H210" t="n">
         <v>0.27</v>
@@ -17347,7 +17347,7 @@
         <v>0.007</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0135276432798923</v>
+        <v>0.0135273082977244</v>
       </c>
       <c r="H211" t="n">
         <v>0.124</v>
@@ -17424,7 +17424,7 @@
         <v>0.007</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0135276432798923</v>
+        <v>0.0135273082977244</v>
       </c>
       <c r="H212" t="n">
         <v>0.124</v>
@@ -17582,7 +17582,7 @@
         <v>0.9</v>
       </c>
       <c r="G214" t="n">
-        <v>1.41155863982314</v>
+        <v>1.41156397664576</v>
       </c>
       <c r="H214" t="n">
         <v>4.95</v>
@@ -17741,10 +17741,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00453</v>
+        <v>0.00458</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0047421736790278</v>
+        <v>0.0047609703272496</v>
       </c>
       <c r="H216" t="n">
         <v>0.008999999999999999</v>
@@ -17822,10 +17822,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00453</v>
+        <v>0.00458</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0047421736790278</v>
+        <v>0.0047609703272496</v>
       </c>
       <c r="H217" t="n">
         <v>0.008999999999999999</v>
@@ -17906,7 +17906,7 @@
         <v>16</v>
       </c>
       <c r="G218" t="n">
-        <v>86.6615395406693</v>
+        <v>86.62644379619201</v>
       </c>
       <c r="H218" t="n">
         <v>710</v>
@@ -17991,7 +17991,7 @@
         <v>16</v>
       </c>
       <c r="G219" t="n">
-        <v>86.6615395406693</v>
+        <v>86.62644379619201</v>
       </c>
       <c r="H219" t="n">
         <v>710</v>
@@ -18076,7 +18076,7 @@
         <v>16</v>
       </c>
       <c r="G220" t="n">
-        <v>86.6615395406693</v>
+        <v>86.62644379619201</v>
       </c>
       <c r="H220" t="n">
         <v>710</v>
@@ -18161,7 +18161,7 @@
         <v>16</v>
       </c>
       <c r="G221" t="n">
-        <v>86.6615395406693</v>
+        <v>86.62644379619201</v>
       </c>
       <c r="H221" t="n">
         <v>710</v>
@@ -18323,13 +18323,13 @@
         <v>0.00281</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0035121717397264</v>
+        <v>0.0035254108745473</v>
       </c>
       <c r="H223" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I223" t="n">
-        <v>0.00971</v>
+        <v>0.00979</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -18337,10 +18337,10 @@
         <v>0.00284</v>
       </c>
       <c r="M223" t="n">
-        <v>0.00482</v>
+        <v>0.00485</v>
       </c>
       <c r="N223" t="n">
-        <v>0.00713</v>
+        <v>0.00718</v>
       </c>
       <c r="O223" t="n">
         <v>1815287</v>
@@ -18404,13 +18404,13 @@
         <v>0.00281</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0035121717397264</v>
+        <v>0.0035254108745473</v>
       </c>
       <c r="H224" t="n">
-        <v>0.0298299591876081</v>
+        <v>0.0299525201900426</v>
       </c>
       <c r="I224" t="n">
-        <v>0.00971</v>
+        <v>0.00979</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -18418,10 +18418,10 @@
         <v>0.00284</v>
       </c>
       <c r="M224" t="n">
-        <v>0.00482</v>
+        <v>0.00485</v>
       </c>
       <c r="N224" t="n">
-        <v>0.00713</v>
+        <v>0.00718</v>
       </c>
       <c r="O224" t="n">
         <v>1815287</v>
@@ -18485,7 +18485,7 @@
         <v>0.013</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0127761445301271</v>
+        <v>0.012766289788887</v>
       </c>
       <c r="H225" t="n">
         <v>0.03</v>
@@ -18566,7 +18566,7 @@
         <v>0.013</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0127761445301271</v>
+        <v>0.012766289788887</v>
       </c>
       <c r="H226" t="n">
         <v>0.03</v>
@@ -18720,7 +18720,7 @@
         <v>0.015</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0181091580966204</v>
+        <v>0.0181058058041504</v>
       </c>
       <c r="H228" t="n">
         <v>0.035</v>
@@ -18797,7 +18797,7 @@
         <v>0.015</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0181091580966204</v>
+        <v>0.0181058058041504</v>
       </c>
       <c r="H229" t="n">
         <v>0.035</v>
@@ -18874,7 +18874,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0844895585862578</v>
+        <v>0.08453228229304249</v>
       </c>
       <c r="H230" t="n">
         <v>0.27</v>
@@ -18951,7 +18951,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0844895585862578</v>
+        <v>0.08453228229304249</v>
       </c>
       <c r="H231" t="n">
         <v>0.27</v>
@@ -19156,6 +19156,1687 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.7038</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.72495</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.40053336261428</v>
+      </c>
+      <c r="H235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I235" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M235" t="n">
+        <v>2.967</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3.633</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2.29133333333333</v>
+      </c>
+      <c r="H236" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4.5125</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3.4925</v>
+      </c>
+      <c r="N236" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.0046088156696194</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.0046088156696194</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>16</v>
+      </c>
+      <c r="G239" t="n">
+        <v>117.46149364999</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2908</v>
+      </c>
+      <c r="I239" t="n">
+        <v>633.4</v>
+      </c>
+      <c r="J239" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K239" t="n">
+        <v>8.620689655172409</v>
+      </c>
+      <c r="L239" t="n">
+        <v>56</v>
+      </c>
+      <c r="M239" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="N239" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>16</v>
+      </c>
+      <c r="G240" t="n">
+        <v>117.46149364999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2908</v>
+      </c>
+      <c r="I240" t="n">
+        <v>633.4</v>
+      </c>
+      <c r="J240" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K240" t="n">
+        <v>8.620689655172409</v>
+      </c>
+      <c r="L240" t="n">
+        <v>56</v>
+      </c>
+      <c r="M240" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="N240" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>16</v>
+      </c>
+      <c r="G241" t="n">
+        <v>117.46149364999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2908</v>
+      </c>
+      <c r="I241" t="n">
+        <v>633.4</v>
+      </c>
+      <c r="J241" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K241" t="n">
+        <v>8.620689655172409</v>
+      </c>
+      <c r="L241" t="n">
+        <v>56</v>
+      </c>
+      <c r="M241" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="N241" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>16</v>
+      </c>
+      <c r="G242" t="n">
+        <v>117.46149364999</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2908</v>
+      </c>
+      <c r="I242" t="n">
+        <v>633.4</v>
+      </c>
+      <c r="J242" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K242" t="n">
+        <v>8.620689655172409</v>
+      </c>
+      <c r="L242" t="n">
+        <v>56</v>
+      </c>
+      <c r="M242" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="N242" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>140.95</v>
+      </c>
+      <c r="G243" t="n">
+        <v>141.19</v>
+      </c>
+      <c r="H243" t="n">
+        <v>144</v>
+      </c>
+      <c r="I243" t="n">
+        <v>144</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>140.95</v>
+      </c>
+      <c r="M243" t="n">
+        <v>142.95</v>
+      </c>
+      <c r="N243" t="n">
+        <v>144</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.00193</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.002628876871843</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.0117082723432806</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.00777</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.00422</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.00567</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.00193</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.002628876871843</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.0117082723432806</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.00777</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.00422</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.00567</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.0116153165239688</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.01864</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.02558</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.0116153165239688</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.01864</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.02558</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G248" t="n">
+        <v>7.9428</v>
+      </c>
+      <c r="H248" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="I248" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="M248" t="n">
+        <v>8.165050000000001</v>
+      </c>
+      <c r="N248" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.0164310344827586</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.0164310344827586</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.0879391139609103</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.1786</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.0879391139609103</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.1786</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.0143103448275862</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.03174</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.0143103448275862</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.03174</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
+++ b/state_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
@@ -567,27 +567,27 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.18141</v>
+        <v>3.22339</v>
       </c>
       <c r="G2" t="n">
-        <v>4.21434822839532</v>
+        <v>4.38814905840044</v>
       </c>
       <c r="H2" t="n">
-        <v>10.3266164576416</v>
+        <v>11.3089469360449</v>
       </c>
       <c r="I2" t="n">
-        <v>9.263019999999999</v>
+        <v>10.72895</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.09071</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>6.9434</v>
+        <v>7.05892</v>
       </c>
       <c r="N2" t="n">
-        <v>9.176170000000001</v>
+        <v>9.745139999999999</v>
       </c>
       <c r="O2" t="n">
         <v>1815287</v>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.18141</v>
+        <v>3.22339</v>
       </c>
       <c r="G13" t="n">
-        <v>4.03881094602802</v>
+        <v>4.20639643632008</v>
       </c>
       <c r="H13" t="n">
-        <v>10.3266164576416</v>
+        <v>11.3089469360449</v>
       </c>
       <c r="I13" t="n">
-        <v>9.20842</v>
+        <v>10.07423</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1483,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>6.085</v>
+        <v>6.90769</v>
       </c>
       <c r="N13" t="n">
-        <v>9.033390000000001</v>
+        <v>9.25731</v>
       </c>
       <c r="O13" t="n">
         <v>1815287</v>
@@ -2608,27 +2608,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>3.5098</v>
       </c>
       <c r="G27" t="n">
-        <v>4.17885174031862</v>
+        <v>4.30674553662616</v>
       </c>
       <c r="H27" t="n">
-        <v>12.3652016585106</v>
+        <v>11.3089469360449</v>
       </c>
       <c r="I27" t="n">
-        <v>9.244820000000001</v>
+        <v>10.02838</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>3.09071</v>
+        <v>3.675</v>
       </c>
       <c r="M27" t="n">
-        <v>6.081</v>
+        <v>6.86968</v>
       </c>
       <c r="N27" t="n">
-        <v>9.070959999999999</v>
+        <v>9.32062</v>
       </c>
       <c r="O27" t="n">
         <v>1815287</v>
@@ -4215,13 +4215,13 @@
         <v>3.1</v>
       </c>
       <c r="G47" t="n">
-        <v>3.90768367670286</v>
+        <v>4.01920618065411</v>
       </c>
       <c r="H47" t="n">
-        <v>12.3652016585106</v>
+        <v>11.3089469360449</v>
       </c>
       <c r="I47" t="n">
-        <v>9.04163</v>
+        <v>9.372719999999999</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4229,10 +4229,10 @@
         <v>3.05</v>
       </c>
       <c r="M47" t="n">
-        <v>5.51204</v>
+        <v>5.62486</v>
       </c>
       <c r="N47" t="n">
-        <v>8.27966</v>
+        <v>7.98939</v>
       </c>
       <c r="O47" t="n">
         <v>1815287</v>
@@ -5896,13 +5896,13 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>3.43459580709034</v>
+        <v>3.41984747560803</v>
       </c>
       <c r="H68" t="n">
-        <v>12.3652016585106</v>
+        <v>10.1505938340672</v>
       </c>
       <c r="I68" t="n">
-        <v>8.33019</v>
+        <v>8.075810000000001</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -5910,10 +5910,10 @@
         <v>2.85</v>
       </c>
       <c r="M68" t="n">
-        <v>4.96642</v>
+        <v>4.96244</v>
       </c>
       <c r="N68" t="n">
-        <v>7.64027</v>
+        <v>7.63545</v>
       </c>
       <c r="O68" t="n">
         <v>1815287</v>
@@ -7577,13 +7577,13 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>3.33927782257693</v>
+        <v>3.37235269490377</v>
       </c>
       <c r="H89" t="n">
-        <v>12.3652016585106</v>
+        <v>10.1505938340672</v>
       </c>
       <c r="I89" t="n">
-        <v>7.4675</v>
+        <v>7.55287</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7591,7 +7591,7 @@
         <v>2.85</v>
       </c>
       <c r="M89" t="n">
-        <v>4.70708</v>
+        <v>4.94587</v>
       </c>
       <c r="N89" t="n">
         <v>5.97</v>
@@ -9258,13 +9258,13 @@
         <v>2.6</v>
       </c>
       <c r="G110" t="n">
-        <v>3.04429014726445</v>
+        <v>3.03870346562862</v>
       </c>
       <c r="H110" t="n">
-        <v>12.3652016585106</v>
+        <v>10.1505938340672</v>
       </c>
       <c r="I110" t="n">
-        <v>7.03413</v>
+        <v>6.97165</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9272,10 +9272,10 @@
         <v>2.6</v>
       </c>
       <c r="M110" t="n">
-        <v>4.8418</v>
+        <v>4.94093</v>
       </c>
       <c r="N110" t="n">
-        <v>5.55</v>
+        <v>5.58899</v>
       </c>
       <c r="O110" t="n">
         <v>1815287</v>
